--- a/Pengeluaran Mingguan Tahun 2022.xlsx
+++ b/Pengeluaran Mingguan Tahun 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -1280,9 +1280,6 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,16 +1295,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1316,23 +1322,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1455,76 +1455,76 @@
             <v>34621500</v>
           </cell>
         </row>
-        <row r="108">
-          <cell r="E108">
-            <v>8039600</v>
+        <row r="110">
+          <cell r="E110">
+            <v>8236600</v>
           </cell>
         </row>
-        <row r="121">
-          <cell r="E121">
-            <v>110213353.5</v>
+        <row r="126">
+          <cell r="E126">
+            <v>169813353.5</v>
           </cell>
         </row>
-        <row r="145">
-          <cell r="E145">
-            <v>1390000</v>
+        <row r="153">
+          <cell r="E153">
+            <v>1554000</v>
           </cell>
         </row>
-        <row r="194">
-          <cell r="E194">
-            <v>2630000</v>
+        <row r="211">
+          <cell r="E211">
+            <v>3095000</v>
           </cell>
         </row>
-        <row r="256">
-          <cell r="E256">
+        <row r="273">
+          <cell r="E273">
             <v>6809000</v>
           </cell>
         </row>
-        <row r="267">
-          <cell r="E267">
+        <row r="284">
+          <cell r="E284">
             <v>5182000</v>
           </cell>
         </row>
-        <row r="320">
-          <cell r="E320">
-            <v>17187880</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="E355">
-            <v>12065000</v>
+        <row r="343">
+          <cell r="E343">
+            <v>17512880</v>
           </cell>
         </row>
         <row r="380">
           <cell r="E380">
-            <v>67963000</v>
+            <v>12267500</v>
           </cell>
         </row>
-        <row r="391">
-          <cell r="E391">
+        <row r="407">
+          <cell r="E407">
+            <v>69013000</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="E418">
             <v>3212000</v>
           </cell>
         </row>
-        <row r="426">
-          <cell r="E426">
-            <v>2131000</v>
+        <row r="455">
+          <cell r="E455">
+            <v>2371000</v>
           </cell>
         </row>
-        <row r="464">
-          <cell r="E464">
+        <row r="493">
+          <cell r="E493">
             <v>17666866</v>
           </cell>
         </row>
-        <row r="467">
-          <cell r="E467">
-            <v>484582338.5</v>
+        <row r="496">
+          <cell r="E496">
+            <v>546825838.5</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1545,37 +1545,37 @@
         </row>
         <row r="114">
           <cell r="E114">
-            <v>19763526</v>
+            <v>20193526</v>
           </cell>
         </row>
         <row r="123">
           <cell r="E123">
-            <v>43990000</v>
+            <v>50914000</v>
           </cell>
         </row>
-        <row r="153">
-          <cell r="E153">
-            <v>1919000</v>
+        <row r="158">
+          <cell r="E158">
+            <v>2189000</v>
           </cell>
         </row>
-        <row r="164">
-          <cell r="E164">
-            <v>450000</v>
+        <row r="173">
+          <cell r="E173">
+            <v>780000</v>
           </cell>
         </row>
-        <row r="192">
-          <cell r="E192">
-            <v>8955500</v>
+        <row r="202">
+          <cell r="E202">
+            <v>9445500</v>
           </cell>
         </row>
-        <row r="203">
-          <cell r="E203">
+        <row r="213">
+          <cell r="E213">
             <v>812000</v>
           </cell>
         </row>
-        <row r="206">
-          <cell r="E206">
-            <v>95351646</v>
+        <row r="216">
+          <cell r="E216">
+            <v>103795646</v>
           </cell>
         </row>
       </sheetData>
@@ -1628,39 +1628,44 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="81">
-          <cell r="E81">
-            <v>9345187.5</v>
+        <row r="58">
+          <cell r="D58">
+            <v>73000</v>
           </cell>
         </row>
-        <row r="90">
-          <cell r="E90">
-            <v>21712500</v>
+        <row r="85">
+          <cell r="E85">
+            <v>10045187.5</v>
           </cell>
         </row>
-        <row r="115">
-          <cell r="E115">
-            <v>1326000</v>
+        <row r="94">
+          <cell r="E94">
+            <v>29819500</v>
           </cell>
         </row>
-        <row r="125">
-          <cell r="E125">
-            <v>695000</v>
+        <row r="123">
+          <cell r="E123">
+            <v>2010000</v>
           </cell>
         </row>
-        <row r="147">
-          <cell r="E147">
-            <v>5263500</v>
+        <row r="133">
+          <cell r="E133">
+            <v>715000</v>
           </cell>
         </row>
-        <row r="163">
-          <cell r="E163">
+        <row r="158">
+          <cell r="E158">
+            <v>6123500</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="E174">
             <v>1530200</v>
           </cell>
         </row>
-        <row r="166">
-          <cell r="E166">
-            <v>39872387.5</v>
+        <row r="177">
+          <cell r="E177">
+            <v>50243387.5</v>
           </cell>
         </row>
       </sheetData>
@@ -1699,7 +1704,7 @@
         </row>
         <row r="75">
           <cell r="E75">
-            <v>10400000</v>
+            <v>5400000</v>
           </cell>
         </row>
         <row r="91">
@@ -1709,7 +1714,7 @@
         </row>
         <row r="94">
           <cell r="E94">
-            <v>16529500</v>
+            <v>11529500</v>
           </cell>
         </row>
       </sheetData>
@@ -2604,24 +2609,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -2632,10 +2637,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2652,8 +2657,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="16">
         <v>44569</v>
       </c>
@@ -2878,14 +2883,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18.75">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
@@ -2896,10 +2901,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="54" t="str">
@@ -2918,8 +2923,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="55">
         <f>C5</f>
         <v>44569</v>
@@ -3166,14 +3171,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -3184,10 +3189,10 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="54" t="str">
@@ -3206,8 +3211,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="55">
         <f>C20</f>
         <v>44569</v>
@@ -3394,14 +3399,14 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
@@ -3412,10 +3417,10 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="57" t="str">
@@ -3434,8 +3439,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="58">
         <f>C36</f>
         <v>44569</v>
@@ -3622,14 +3627,14 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" ht="18.75">
-      <c r="A59" s="138" t="s">
+      <c r="A59" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="138"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
     </row>
     <row r="60" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A60" s="1"/>
@@ -3640,10 +3645,10 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A61" s="139" t="s">
+      <c r="A61" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="141" t="s">
+      <c r="B61" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="60" t="str">
@@ -3661,8 +3666,8 @@
       <c r="F61" s="46"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A62" s="140"/>
-      <c r="B62" s="142"/>
+      <c r="A62" s="139"/>
+      <c r="B62" s="141"/>
       <c r="C62" s="61">
         <f t="shared" si="0"/>
         <v>44576</v>
@@ -3781,13 +3786,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
@@ -3797,6 +3795,13 @@
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3809,7 +3814,7 @@
   <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="F231" sqref="F231"/>
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3821,24 +3826,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -3849,10 +3854,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3869,8 +3874,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="4">
         <v>44842</v>
       </c>
@@ -4095,14 +4100,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" hidden="1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
@@ -4113,10 +4118,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="14"/>
@@ -4128,8 +4133,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -4300,14 +4305,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -4318,10 +4323,10 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -4339,8 +4344,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="4">
         <f>C5</f>
         <v>44842</v>
@@ -4527,14 +4532,14 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="18.75" hidden="1">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
@@ -4545,10 +4550,10 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="14"/>
@@ -4560,8 +4565,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -4727,14 +4732,14 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="18.75" hidden="1">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
     </row>
     <row r="62" spans="1:6" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="1"/>
@@ -4745,10 +4750,10 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" hidden="1">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="141" t="s">
+      <c r="B63" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="25"/>
@@ -4760,8 +4765,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A64" s="140"/>
-      <c r="B64" s="142"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
@@ -4806,14 +4811,14 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
     </row>
     <row r="69" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A69" s="1"/>
@@ -4824,10 +4829,10 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="141" t="s">
+      <c r="B70" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -4845,8 +4850,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A71" s="140"/>
-      <c r="B71" s="142"/>
+      <c r="A71" s="139"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="4">
         <v>44842</v>
       </c>
@@ -5012,14 +5017,14 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="18.75">
-      <c r="A80" s="138" t="s">
+      <c r="A80" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="138"/>
-      <c r="C80" s="138"/>
-      <c r="D80" s="138"/>
-      <c r="E80" s="138"/>
-      <c r="F80" s="138"/>
+      <c r="B80" s="143"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="143"/>
+      <c r="E80" s="143"/>
+      <c r="F80" s="143"/>
     </row>
     <row r="81" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A81" s="1"/>
@@ -5030,10 +5035,10 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A82" s="139" t="s">
+      <c r="A82" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="141" t="s">
+      <c r="B82" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -5051,8 +5056,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A83" s="140"/>
-      <c r="B83" s="142"/>
+      <c r="A83" s="139"/>
+      <c r="B83" s="141"/>
       <c r="C83" s="4">
         <v>44842</v>
       </c>
@@ -5358,14 +5363,14 @@
       <c r="F98" s="38"/>
     </row>
     <row r="99" spans="1:6" ht="18.75" hidden="1">
-      <c r="A99" s="138" t="s">
+      <c r="A99" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="138"/>
-      <c r="C99" s="138"/>
-      <c r="D99" s="138"/>
-      <c r="E99" s="138"/>
-      <c r="F99" s="138"/>
+      <c r="B99" s="143"/>
+      <c r="C99" s="143"/>
+      <c r="D99" s="143"/>
+      <c r="E99" s="143"/>
+      <c r="F99" s="143"/>
     </row>
     <row r="100" spans="1:6" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A100" s="1"/>
@@ -5376,10 +5381,10 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A101" s="139" t="s">
+      <c r="A101" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="141" t="s">
+      <c r="B101" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="14"/>
@@ -5391,8 +5396,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A102" s="140"/>
-      <c r="B102" s="142"/>
+      <c r="A102" s="139"/>
+      <c r="B102" s="141"/>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
@@ -5603,14 +5608,14 @@
       <c r="F116" s="38"/>
     </row>
     <row r="117" spans="1:6" ht="18.75">
-      <c r="A117" s="138" t="s">
+      <c r="A117" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="B117" s="138"/>
-      <c r="C117" s="138"/>
-      <c r="D117" s="138"/>
-      <c r="E117" s="138"/>
-      <c r="F117" s="138"/>
+      <c r="B117" s="143"/>
+      <c r="C117" s="143"/>
+      <c r="D117" s="143"/>
+      <c r="E117" s="143"/>
+      <c r="F117" s="143"/>
     </row>
     <row r="118" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A118" s="1"/>
@@ -5621,10 +5626,10 @@
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A119" s="139" t="s">
+      <c r="A119" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="141" t="s">
+      <c r="B119" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -5642,8 +5647,8 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A120" s="140"/>
-      <c r="B120" s="142"/>
+      <c r="A120" s="139"/>
+      <c r="B120" s="141"/>
       <c r="C120" s="4">
         <v>44842</v>
       </c>
@@ -5849,14 +5854,14 @@
       <c r="F130" s="38"/>
     </row>
     <row r="131" spans="1:6" ht="18.75">
-      <c r="A131" s="138" t="s">
+      <c r="A131" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="B131" s="138"/>
-      <c r="C131" s="138"/>
-      <c r="D131" s="138"/>
-      <c r="E131" s="138"/>
-      <c r="F131" s="138"/>
+      <c r="B131" s="143"/>
+      <c r="C131" s="143"/>
+      <c r="D131" s="143"/>
+      <c r="E131" s="143"/>
+      <c r="F131" s="143"/>
     </row>
     <row r="132" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A132" s="1"/>
@@ -5867,10 +5872,10 @@
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A133" s="139" t="s">
+      <c r="A133" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="141" t="s">
+      <c r="B133" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -5888,8 +5893,8 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A134" s="140"/>
-      <c r="B134" s="142"/>
+      <c r="A134" s="139"/>
+      <c r="B134" s="141"/>
       <c r="C134" s="4">
         <v>44842</v>
       </c>
@@ -6051,14 +6056,14 @@
       <c r="F142" s="38"/>
     </row>
     <row r="143" spans="1:6" ht="18.75">
-      <c r="A143" s="138" t="s">
+      <c r="A143" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="B143" s="138"/>
-      <c r="C143" s="138"/>
-      <c r="D143" s="138"/>
-      <c r="E143" s="138"/>
-      <c r="F143" s="138"/>
+      <c r="B143" s="143"/>
+      <c r="C143" s="143"/>
+      <c r="D143" s="143"/>
+      <c r="E143" s="143"/>
+      <c r="F143" s="143"/>
     </row>
     <row r="144" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A144" s="1"/>
@@ -6069,10 +6074,10 @@
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A145" s="139" t="s">
+      <c r="A145" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="141" t="s">
+      <c r="B145" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C145" s="3" t="s">
@@ -6090,8 +6095,8 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A146" s="140"/>
-      <c r="B146" s="142"/>
+      <c r="A146" s="139"/>
+      <c r="B146" s="141"/>
       <c r="C146" s="4">
         <v>44842</v>
       </c>
@@ -6317,14 +6322,14 @@
       <c r="F157" s="38"/>
     </row>
     <row r="158" spans="1:6" ht="18.75">
-      <c r="A158" s="138" t="s">
+      <c r="A158" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="138"/>
-      <c r="C158" s="138"/>
-      <c r="D158" s="138"/>
-      <c r="E158" s="138"/>
-      <c r="F158" s="138"/>
+      <c r="B158" s="143"/>
+      <c r="C158" s="143"/>
+      <c r="D158" s="143"/>
+      <c r="E158" s="143"/>
+      <c r="F158" s="143"/>
     </row>
     <row r="159" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A159" s="1"/>
@@ -6335,10 +6340,10 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A160" s="139" t="s">
+      <c r="A160" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="141" t="s">
+      <c r="B160" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3" t="s">
@@ -6356,8 +6361,8 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A161" s="140"/>
-      <c r="B161" s="142"/>
+      <c r="A161" s="139"/>
+      <c r="B161" s="141"/>
       <c r="C161" s="4">
         <v>44842</v>
       </c>
@@ -6762,14 +6767,14 @@
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:7" ht="18.75">
-      <c r="A182" s="138" t="s">
+      <c r="A182" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="B182" s="138"/>
-      <c r="C182" s="138"/>
-      <c r="D182" s="138"/>
-      <c r="E182" s="138"/>
-      <c r="F182" s="138"/>
+      <c r="B182" s="143"/>
+      <c r="C182" s="143"/>
+      <c r="D182" s="143"/>
+      <c r="E182" s="143"/>
+      <c r="F182" s="143"/>
     </row>
     <row r="183" spans="1:7" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A183" s="1"/>
@@ -6780,10 +6785,10 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A184" s="139" t="s">
+      <c r="A184" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B184" s="141" t="s">
+      <c r="B184" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C184" s="3" t="s">
@@ -6801,8 +6806,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A185" s="140"/>
-      <c r="B185" s="142"/>
+      <c r="A185" s="139"/>
+      <c r="B185" s="141"/>
       <c r="C185" s="4">
         <v>44842</v>
       </c>
@@ -6988,14 +6993,14 @@
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:6" ht="18.75">
-      <c r="A195" s="138" t="s">
+      <c r="A195" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="B195" s="138"/>
-      <c r="C195" s="138"/>
-      <c r="D195" s="138"/>
-      <c r="E195" s="138"/>
-      <c r="F195" s="138"/>
+      <c r="B195" s="143"/>
+      <c r="C195" s="143"/>
+      <c r="D195" s="143"/>
+      <c r="E195" s="143"/>
+      <c r="F195" s="143"/>
     </row>
     <row r="196" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A196" s="1"/>
@@ -7006,10 +7011,10 @@
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A197" s="139" t="s">
+      <c r="A197" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="141" t="s">
+      <c r="B197" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -7027,8 +7032,8 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A198" s="140"/>
-      <c r="B198" s="142"/>
+      <c r="A198" s="139"/>
+      <c r="B198" s="141"/>
       <c r="C198" s="4">
         <v>44842</v>
       </c>
@@ -7133,14 +7138,14 @@
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:6" ht="18.75">
-      <c r="A204" s="138" t="s">
+      <c r="A204" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="B204" s="138"/>
-      <c r="C204" s="138"/>
-      <c r="D204" s="138"/>
-      <c r="E204" s="138"/>
-      <c r="F204" s="138"/>
+      <c r="B204" s="143"/>
+      <c r="C204" s="143"/>
+      <c r="D204" s="143"/>
+      <c r="E204" s="143"/>
+      <c r="F204" s="143"/>
     </row>
     <row r="205" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A205" s="1"/>
@@ -7151,10 +7156,10 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A206" s="139" t="s">
+      <c r="A206" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B206" s="141" t="s">
+      <c r="B206" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C206" s="3" t="s">
@@ -7170,8 +7175,8 @@
       <c r="F206" s="42"/>
     </row>
     <row r="207" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A207" s="140"/>
-      <c r="B207" s="142"/>
+      <c r="A207" s="139"/>
+      <c r="B207" s="141"/>
       <c r="C207" s="4">
         <v>44849</v>
       </c>
@@ -7320,14 +7325,14 @@
       <c r="F215" s="38"/>
     </row>
     <row r="216" spans="1:6" ht="18.75">
-      <c r="A216" s="138" t="s">
+      <c r="A216" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="B216" s="138"/>
-      <c r="C216" s="138"/>
-      <c r="D216" s="138"/>
-      <c r="E216" s="138"/>
-      <c r="F216" s="138"/>
+      <c r="B216" s="143"/>
+      <c r="C216" s="143"/>
+      <c r="D216" s="143"/>
+      <c r="E216" s="143"/>
+      <c r="F216" s="143"/>
     </row>
     <row r="217" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A217" s="1"/>
@@ -7338,10 +7343,10 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A218" s="139" t="s">
+      <c r="A218" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B218" s="141" t="s">
+      <c r="B218" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C218" s="3" t="str">
@@ -7356,8 +7361,8 @@
       <c r="F218" s="46"/>
     </row>
     <row r="219" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A219" s="140"/>
-      <c r="B219" s="142"/>
+      <c r="A219" s="139"/>
+      <c r="B219" s="141"/>
       <c r="C219" s="4">
         <f>D207</f>
         <v>44856</v>
@@ -7551,6 +7556,48 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A204:F204"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="A182:F182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A1:F1"/>
@@ -7558,48 +7605,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="A182:F182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="A204:F204"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B218:B219"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7611,8 +7616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="E234" sqref="E234"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7625,24 +7630,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -7650,10 +7655,10 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -7661,8 +7666,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="4">
         <v>44870</v>
       </c>
@@ -7791,11 +7796,11 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" hidden="1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
     </row>
     <row r="18" spans="1:3" s="13" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
@@ -7803,10 +7808,10 @@
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" hidden="1" thickBot="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="3" t="str">
@@ -7815,8 +7820,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" hidden="1" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="16">
         <f>C5</f>
         <v>44870</v>
@@ -7948,14 +7953,14 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -7963,10 +7968,10 @@
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="str">
@@ -7975,8 +7980,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="4">
         <f>C20</f>
         <v>44870</v>
@@ -8082,11 +8087,11 @@
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="18.75" hidden="1">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
@@ -8094,10 +8099,10 @@
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3" t="str">
@@ -8106,8 +8111,8 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" hidden="1" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="16">
         <f>C36</f>
         <v>44870</v>
@@ -8237,11 +8242,11 @@
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" ht="18.75" hidden="1">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
     </row>
     <row r="62" spans="1:3" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="1"/>
@@ -8249,10 +8254,10 @@
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" hidden="1">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="141" t="s">
+      <c r="B63" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="26" t="str">
@@ -8261,8 +8266,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" hidden="1" thickBot="1">
-      <c r="A64" s="140"/>
-      <c r="B64" s="142"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="28">
         <f>C49</f>
         <v>44870</v>
@@ -8295,14 +8300,14 @@
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
     </row>
     <row r="69" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A69" s="1"/>
@@ -8310,10 +8315,10 @@
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="141" t="s">
+      <c r="B70" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="26" t="str">
@@ -8322,8 +8327,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A71" s="140"/>
-      <c r="B71" s="142"/>
+      <c r="A71" s="139"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="31">
         <f>C64</f>
         <v>44870</v>
@@ -8417,14 +8422,14 @@
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="18.75">
-      <c r="A80" s="138" t="s">
+      <c r="A80" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="138"/>
-      <c r="C80" s="138"/>
-      <c r="D80" s="138"/>
-      <c r="E80" s="138"/>
-      <c r="F80" s="138"/>
+      <c r="B80" s="143"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="143"/>
+      <c r="E80" s="143"/>
+      <c r="F80" s="143"/>
     </row>
     <row r="81" spans="1:3" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A81" s="1"/>
@@ -8432,10 +8437,10 @@
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A82" s="139" t="s">
+      <c r="A82" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="141" t="s">
+      <c r="B82" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C82" s="34" t="str">
@@ -8444,8 +8449,8 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A83" s="140"/>
-      <c r="B83" s="142"/>
+      <c r="A83" s="139"/>
+      <c r="B83" s="141"/>
       <c r="C83" s="31">
         <f>C71</f>
         <v>44870</v>
@@ -8623,11 +8628,11 @@
       <c r="C98" s="38"/>
     </row>
     <row r="99" spans="1:3" ht="18.75" hidden="1">
-      <c r="A99" s="138" t="s">
+      <c r="A99" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="138"/>
-      <c r="C99" s="138"/>
+      <c r="B99" s="143"/>
+      <c r="C99" s="143"/>
     </row>
     <row r="100" spans="1:3" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A100" s="1"/>
@@ -8635,10 +8640,10 @@
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3" ht="15.75" hidden="1" thickBot="1">
-      <c r="A101" s="139" t="s">
+      <c r="A101" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="141" t="s">
+      <c r="B101" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="3" t="str">
@@ -8647,8 +8652,8 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" hidden="1" thickBot="1">
-      <c r="A102" s="140"/>
-      <c r="B102" s="142"/>
+      <c r="A102" s="139"/>
+      <c r="B102" s="141"/>
       <c r="C102" s="16">
         <f>C83</f>
         <v>44870</v>
@@ -8814,14 +8819,14 @@
       <c r="C116" s="38"/>
     </row>
     <row r="117" spans="1:6" ht="18.75">
-      <c r="A117" s="138" t="s">
+      <c r="A117" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="B117" s="138"/>
-      <c r="C117" s="138"/>
-      <c r="D117" s="138"/>
-      <c r="E117" s="138"/>
-      <c r="F117" s="138"/>
+      <c r="B117" s="143"/>
+      <c r="C117" s="143"/>
+      <c r="D117" s="143"/>
+      <c r="E117" s="143"/>
+      <c r="F117" s="143"/>
     </row>
     <row r="118" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A118" s="1"/>
@@ -8829,10 +8834,10 @@
       <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A119" s="139" t="s">
+      <c r="A119" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="141" t="s">
+      <c r="B119" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="3" t="str">
@@ -8841,8 +8846,8 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A120" s="140"/>
-      <c r="B120" s="142"/>
+      <c r="A120" s="139"/>
+      <c r="B120" s="141"/>
       <c r="C120" s="4">
         <f>C102</f>
         <v>44870</v>
@@ -8960,14 +8965,14 @@
       <c r="C130" s="38"/>
     </row>
     <row r="131" spans="1:6" ht="18.75">
-      <c r="A131" s="138" t="s">
+      <c r="A131" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="B131" s="138"/>
-      <c r="C131" s="138"/>
-      <c r="D131" s="138"/>
-      <c r="E131" s="138"/>
-      <c r="F131" s="138"/>
+      <c r="B131" s="143"/>
+      <c r="C131" s="143"/>
+      <c r="D131" s="143"/>
+      <c r="E131" s="143"/>
+      <c r="F131" s="143"/>
     </row>
     <row r="132" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A132" s="1"/>
@@ -8975,10 +8980,10 @@
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A133" s="139" t="s">
+      <c r="A133" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="141" t="s">
+      <c r="B133" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C133" s="3" t="str">
@@ -8987,8 +8992,8 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A134" s="140"/>
-      <c r="B134" s="142"/>
+      <c r="A134" s="139"/>
+      <c r="B134" s="141"/>
       <c r="C134" s="4">
         <f>C120</f>
         <v>44870</v>
@@ -9082,14 +9087,14 @@
       <c r="C142" s="38"/>
     </row>
     <row r="143" spans="1:6" ht="18.75">
-      <c r="A143" s="138" t="s">
+      <c r="A143" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="B143" s="138"/>
-      <c r="C143" s="138"/>
-      <c r="D143" s="138"/>
-      <c r="E143" s="138"/>
-      <c r="F143" s="138"/>
+      <c r="B143" s="143"/>
+      <c r="C143" s="143"/>
+      <c r="D143" s="143"/>
+      <c r="E143" s="143"/>
+      <c r="F143" s="143"/>
     </row>
     <row r="144" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A144" s="1"/>
@@ -9097,10 +9102,10 @@
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A145" s="139" t="s">
+      <c r="A145" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="141" t="s">
+      <c r="B145" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C145" s="3" t="str">
@@ -9109,8 +9114,8 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A146" s="140"/>
-      <c r="B146" s="142"/>
+      <c r="A146" s="139"/>
+      <c r="B146" s="141"/>
       <c r="C146" s="4">
         <f>C134</f>
         <v>44870</v>
@@ -9240,14 +9245,14 @@
       <c r="C157" s="38"/>
     </row>
     <row r="158" spans="1:6" ht="18.75">
-      <c r="A158" s="138" t="s">
+      <c r="A158" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="138"/>
-      <c r="C158" s="138"/>
-      <c r="D158" s="138"/>
-      <c r="E158" s="138"/>
-      <c r="F158" s="138"/>
+      <c r="B158" s="143"/>
+      <c r="C158" s="143"/>
+      <c r="D158" s="143"/>
+      <c r="E158" s="143"/>
+      <c r="F158" s="143"/>
     </row>
     <row r="159" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A159" s="1"/>
@@ -9255,10 +9260,10 @@
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A160" s="139" t="s">
+      <c r="A160" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="141" t="s">
+      <c r="B160" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3" t="str">
@@ -9267,8 +9272,8 @@
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A161" s="140"/>
-      <c r="B161" s="142"/>
+      <c r="A161" s="139"/>
+      <c r="B161" s="141"/>
       <c r="C161" s="4">
         <f>C146</f>
         <v>44870</v>
@@ -9354,8 +9359,8 @@
         <v>11</v>
       </c>
       <c r="C168" s="35">
-        <f>[10]PENGELUARAN!$E$108</f>
-        <v>8039600</v>
+        <f>[10]PENGELUARAN!$E$110</f>
+        <v>8236600</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -9366,8 +9371,8 @@
         <v>12</v>
       </c>
       <c r="C169" s="35">
-        <f>[10]PENGELUARAN!$E$121</f>
-        <v>110213353.5</v>
+        <f>[10]PENGELUARAN!$E$126</f>
+        <v>169813353.5</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -9378,8 +9383,8 @@
         <v>67</v>
       </c>
       <c r="C170" s="35">
-        <f>[10]PENGELUARAN!$E$145</f>
-        <v>1390000</v>
+        <f>[10]PENGELUARAN!$E$153</f>
+        <v>1554000</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -9390,8 +9395,8 @@
         <v>13</v>
       </c>
       <c r="C171" s="35">
-        <f>[10]PENGELUARAN!$E$194</f>
-        <v>2630000</v>
+        <f>[10]PENGELUARAN!$E$211</f>
+        <v>3095000</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -9402,7 +9407,7 @@
         <v>68</v>
       </c>
       <c r="C172" s="35">
-        <f>[10]PENGELUARAN!$E$256</f>
+        <f>[10]PENGELUARAN!$E$273</f>
         <v>6809000</v>
       </c>
     </row>
@@ -9414,7 +9419,7 @@
         <v>23</v>
       </c>
       <c r="C173" s="35">
-        <f>[10]PENGELUARAN!$E$267</f>
+        <f>[10]PENGELUARAN!$E$284</f>
         <v>5182000</v>
       </c>
     </row>
@@ -9426,8 +9431,8 @@
         <v>27</v>
       </c>
       <c r="C174" s="32">
-        <f>[10]PENGELUARAN!$E$320</f>
-        <v>17187880</v>
+        <f>[10]PENGELUARAN!$E$343</f>
+        <v>17512880</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -9438,8 +9443,8 @@
         <v>48</v>
       </c>
       <c r="C175" s="32">
-        <f>[10]PENGELUARAN!$E$355</f>
-        <v>12065000</v>
+        <f>[10]PENGELUARAN!$E$380</f>
+        <v>12267500</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -9450,8 +9455,8 @@
         <v>69</v>
       </c>
       <c r="C176" s="32">
-        <f>[10]PENGELUARAN!$E$380</f>
-        <v>67963000</v>
+        <f>[10]PENGELUARAN!$E$407</f>
+        <v>69013000</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -9462,7 +9467,7 @@
         <v>70</v>
       </c>
       <c r="C177" s="32">
-        <f>[10]PENGELUARAN!$E$391</f>
+        <f>[10]PENGELUARAN!$E$418</f>
         <v>3212000</v>
       </c>
     </row>
@@ -9474,8 +9479,8 @@
         <v>71</v>
       </c>
       <c r="C178" s="32">
-        <f>[10]PENGELUARAN!$E$426</f>
-        <v>2131000</v>
+        <f>[10]PENGELUARAN!$E$455</f>
+        <v>2371000</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15.75" thickBot="1">
@@ -9486,7 +9491,7 @@
         <v>25</v>
       </c>
       <c r="C179" s="32">
-        <f>[10]PENGELUARAN!$E$464</f>
+        <f>[10]PENGELUARAN!$E$493</f>
         <v>17666866</v>
       </c>
     </row>
@@ -9497,7 +9502,7 @@
       </c>
       <c r="C180" s="11">
         <f>SUM(C162:C179)</f>
-        <v>484582338.5</v>
+        <v>546825838.5</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -9505,14 +9510,14 @@
       <c r="B181" s="2"/>
     </row>
     <row r="182" spans="1:6" ht="18.75">
-      <c r="A182" s="138" t="s">
+      <c r="A182" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="B182" s="138"/>
-      <c r="C182" s="138"/>
-      <c r="D182" s="138"/>
-      <c r="E182" s="138"/>
-      <c r="F182" s="138"/>
+      <c r="B182" s="143"/>
+      <c r="C182" s="143"/>
+      <c r="D182" s="143"/>
+      <c r="E182" s="143"/>
+      <c r="F182" s="143"/>
     </row>
     <row r="183" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A183" s="1"/>
@@ -9520,10 +9525,10 @@
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A184" s="139" t="s">
+      <c r="A184" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B184" s="141" t="s">
+      <c r="B184" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C184" s="3" t="str">
@@ -9532,8 +9537,8 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A185" s="140"/>
-      <c r="B185" s="142"/>
+      <c r="A185" s="139"/>
+      <c r="B185" s="141"/>
       <c r="C185" s="40">
         <f>C161</f>
         <v>44870</v>
@@ -9560,7 +9565,7 @@
       </c>
       <c r="C187" s="32">
         <f>[11]Sheet2!$E$114</f>
-        <v>19763526</v>
+        <v>20193526</v>
       </c>
       <c r="D187" s="41"/>
     </row>
@@ -9573,7 +9578,7 @@
       </c>
       <c r="C188" s="32">
         <f>[11]Sheet2!$E$123</f>
-        <v>43990000</v>
+        <v>50914000</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -9584,8 +9589,8 @@
         <v>13</v>
       </c>
       <c r="C189" s="32">
-        <f>[11]Sheet2!$E$153</f>
-        <v>1919000</v>
+        <f>[11]Sheet2!$E$158</f>
+        <v>2189000</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -9596,8 +9601,8 @@
         <v>28</v>
       </c>
       <c r="C190" s="32">
-        <f>[11]Sheet2!$E$164</f>
-        <v>450000</v>
+        <f>[11]Sheet2!$E$173</f>
+        <v>780000</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -9608,8 +9613,8 @@
         <v>27</v>
       </c>
       <c r="C191" s="32">
-        <f>[11]Sheet2!$E$192</f>
-        <v>8955500</v>
+        <f>[11]Sheet2!$E$202</f>
+        <v>9445500</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15.75" thickBot="1">
@@ -9620,7 +9625,7 @@
         <v>25</v>
       </c>
       <c r="C192" s="32">
-        <f>[11]Sheet2!$E$203</f>
+        <f>[11]Sheet2!$E$213</f>
         <v>812000</v>
       </c>
     </row>
@@ -9631,7 +9636,7 @@
       </c>
       <c r="C193" s="11">
         <f>SUM(C186:C192)</f>
-        <v>95351646</v>
+        <v>103795646</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -9639,14 +9644,14 @@
       <c r="B194" s="2"/>
     </row>
     <row r="195" spans="1:6" ht="18.75">
-      <c r="A195" s="138" t="s">
+      <c r="A195" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="B195" s="138"/>
-      <c r="C195" s="138"/>
-      <c r="D195" s="138"/>
-      <c r="E195" s="138"/>
-      <c r="F195" s="138"/>
+      <c r="B195" s="143"/>
+      <c r="C195" s="143"/>
+      <c r="D195" s="143"/>
+      <c r="E195" s="143"/>
+      <c r="F195" s="143"/>
     </row>
     <row r="196" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A196" s="1"/>
@@ -9654,10 +9659,10 @@
       <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A197" s="139" t="s">
+      <c r="A197" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="141" t="s">
+      <c r="B197" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C197" s="3" t="str">
@@ -9666,8 +9671,8 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A198" s="140"/>
-      <c r="B198" s="142"/>
+      <c r="A198" s="139"/>
+      <c r="B198" s="141"/>
       <c r="C198" s="40">
         <f>C185</f>
         <v>44870</v>
@@ -9685,8 +9690,8 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A200" s="8">
+    <row r="200" spans="1:6">
+      <c r="A200" s="5">
         <v>2</v>
       </c>
       <c r="B200" s="6" t="s">
@@ -9724,14 +9729,14 @@
       <c r="B203" s="2"/>
     </row>
     <row r="204" spans="1:6" ht="18.75">
-      <c r="A204" s="138" t="s">
+      <c r="A204" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="B204" s="138"/>
-      <c r="C204" s="138"/>
-      <c r="D204" s="138"/>
-      <c r="E204" s="138"/>
-      <c r="F204" s="138"/>
+      <c r="B204" s="143"/>
+      <c r="C204" s="143"/>
+      <c r="D204" s="143"/>
+      <c r="E204" s="143"/>
+      <c r="F204" s="143"/>
     </row>
     <row r="205" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A205" s="1"/>
@@ -9739,10 +9744,10 @@
       <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A206" s="139" t="s">
+      <c r="A206" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B206" s="141" t="s">
+      <c r="B206" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C206" s="3" t="str">
@@ -9751,8 +9756,8 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A207" s="140"/>
-      <c r="B207" s="142"/>
+      <c r="A207" s="139"/>
+      <c r="B207" s="141"/>
       <c r="C207" s="4">
         <f>C198</f>
         <v>44870</v>
@@ -9766,8 +9771,8 @@
         <v>11</v>
       </c>
       <c r="C208" s="32">
-        <f>[13]Sheet2!$E$81</f>
-        <v>9345187.5</v>
+        <f>[13]Sheet2!$E$85</f>
+        <v>10045187.5</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -9778,8 +9783,8 @@
         <v>12</v>
       </c>
       <c r="C209" s="32">
-        <f>[13]Sheet2!$E$90</f>
-        <v>21712500</v>
+        <f>[13]Sheet2!$E$94</f>
+        <v>29819500</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -9790,8 +9795,8 @@
         <v>13</v>
       </c>
       <c r="C210" s="32">
-        <f>[13]Sheet2!$E$115</f>
-        <v>1326000</v>
+        <f>[13]Sheet2!$E$123</f>
+        <v>2010000</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -9802,8 +9807,8 @@
         <v>76</v>
       </c>
       <c r="C211" s="32">
-        <f>[13]Sheet2!$E$147</f>
-        <v>5263500</v>
+        <f>[13]Sheet2!$E$158</f>
+        <v>6123500</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -9814,8 +9819,8 @@
         <v>36</v>
       </c>
       <c r="C212" s="32">
-        <f>[13]Sheet2!$E$125</f>
-        <v>695000</v>
+        <f>[13]Sheet2!$E$133</f>
+        <v>715000</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15.75" thickBot="1">
@@ -9826,7 +9831,7 @@
         <v>25</v>
       </c>
       <c r="C213" s="32">
-        <f>[13]Sheet2!$E$163</f>
+        <f>[13]Sheet2!$E$174</f>
         <v>1530200</v>
       </c>
     </row>
@@ -9837,7 +9842,7 @@
       </c>
       <c r="C214" s="11">
         <f>SUM(C208:C213)</f>
-        <v>39872387.5</v>
+        <v>50243387.5</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -9846,14 +9851,14 @@
       <c r="C215" s="38"/>
     </row>
     <row r="216" spans="1:6" ht="18.75">
-      <c r="A216" s="138" t="s">
+      <c r="A216" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="B216" s="138"/>
-      <c r="C216" s="138"/>
-      <c r="D216" s="138"/>
-      <c r="E216" s="138"/>
-      <c r="F216" s="138"/>
+      <c r="B216" s="143"/>
+      <c r="C216" s="143"/>
+      <c r="D216" s="143"/>
+      <c r="E216" s="143"/>
+      <c r="F216" s="143"/>
     </row>
     <row r="217" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A217" s="1"/>
@@ -9861,10 +9866,10 @@
       <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A218" s="139" t="s">
+      <c r="A218" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B218" s="141" t="s">
+      <c r="B218" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C218" s="3" t="str">
@@ -9873,8 +9878,8 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A219" s="140"/>
-      <c r="B219" s="142"/>
+      <c r="A219" s="139"/>
+      <c r="B219" s="141"/>
       <c r="C219" s="4">
         <f>C207</f>
         <v>44870</v>
@@ -9937,7 +9942,7 @@
       </c>
       <c r="C224" s="32">
         <f>[14]Sheet2!$E$75</f>
-        <v>10400000</v>
+        <v>5400000</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15.75" thickBot="1">
@@ -9959,7 +9964,7 @@
       </c>
       <c r="C226" s="11">
         <f>SUM(C220:C225)</f>
-        <v>16529500</v>
+        <v>11529500</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -10009,6 +10014,47 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="A204:F204"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="A182:F182"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A33:F33"/>
@@ -10017,47 +10063,6 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="A182:F182"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="A204:F204"/>
-    <mergeCell ref="A216:F216"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10069,8 +10074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10097,30 +10102,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
     </row>
     <row r="2" spans="1:16" ht="21">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="146" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="65"/>
@@ -10376,12 +10381,12 @@
         <v>3059768074.4000001</v>
       </c>
       <c r="F12" s="75">
-        <f>[10]PENGELUARAN!$E$467</f>
-        <v>484582338.5</v>
+        <f>[10]PENGELUARAN!$E$496</f>
+        <v>546825838.5</v>
       </c>
       <c r="G12" s="75">
         <f>E12-F12</f>
-        <v>2575185735.9000001</v>
+        <v>2512942235.9000001</v>
       </c>
       <c r="H12" s="81"/>
       <c r="J12" s="77"/>
@@ -10415,12 +10420,12 @@
         <v>114263260</v>
       </c>
       <c r="F13" s="75">
-        <f>[11]Sheet2!$E$206</f>
-        <v>95351646</v>
+        <f>[11]Sheet2!$E$216</f>
+        <v>103795646</v>
       </c>
       <c r="G13" s="75">
         <f>E13-F13</f>
-        <v>18911614</v>
+        <v>10467614</v>
       </c>
       <c r="H13" s="81"/>
       <c r="J13" s="77"/>
@@ -10492,12 +10497,12 @@
       <c r="D15" s="75"/>
       <c r="E15" s="75"/>
       <c r="F15" s="75">
-        <f>[13]Sheet2!$E$166</f>
-        <v>39872387.5</v>
+        <f>[13]Sheet2!$E$177</f>
+        <v>50243387.5</v>
       </c>
       <c r="G15" s="75">
         <f>C15-F15</f>
-        <v>-39872387.5</v>
+        <v>-50243387.5</v>
       </c>
       <c r="H15" s="81"/>
       <c r="J15" s="77"/>
@@ -10521,11 +10526,11 @@
       <c r="E16" s="74"/>
       <c r="F16" s="74">
         <f>[14]Sheet2!$E$94</f>
-        <v>16529500</v>
+        <v>11529500</v>
       </c>
       <c r="G16" s="75">
         <f>C16-F16</f>
-        <v>-16529500</v>
+        <v>-11529500</v>
       </c>
       <c r="H16" s="76"/>
       <c r="J16" s="77"/>
@@ -10554,11 +10559,11 @@
       </c>
       <c r="F17" s="84">
         <f>SUM(F5:F16)</f>
-        <v>1789932237</v>
+        <v>1865990737</v>
       </c>
       <c r="G17" s="84">
         <f>SUM(G5:G16)</f>
-        <v>2434099097.4000001</v>
+        <v>2358040597.4000001</v>
       </c>
       <c r="H17" s="85"/>
       <c r="K17" s="81"/>
@@ -10682,10 +10687,10 @@
       <c r="B29" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="155"/>
+      <c r="D29" s="147"/>
       <c r="E29" s="93"/>
       <c r="F29" s="91"/>
       <c r="G29" s="78"/>
@@ -10696,8 +10701,8 @@
       <c r="B30" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="149"/>
       <c r="E30" s="95"/>
       <c r="F30" s="91"/>
       <c r="G30" s="78"/>
@@ -10706,10 +10711,10 @@
     </row>
     <row r="31" spans="1:14" hidden="1">
       <c r="B31" s="18"/>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="147"/>
+      <c r="D31" s="145"/>
       <c r="E31" s="96"/>
       <c r="F31" s="91"/>
       <c r="G31" s="91"/>
@@ -10717,10 +10722,10 @@
     </row>
     <row r="32" spans="1:14" hidden="1">
       <c r="B32" s="18"/>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="147"/>
+      <c r="D32" s="145"/>
       <c r="E32" s="96"/>
       <c r="F32" s="91"/>
       <c r="G32" s="91"/>
@@ -10728,10 +10733,10 @@
     </row>
     <row r="33" spans="1:12" hidden="1">
       <c r="B33" s="18"/>
-      <c r="C33" s="146" t="s">
+      <c r="C33" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="147"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="96"/>
       <c r="F33" s="91"/>
       <c r="G33" s="91"/>
@@ -10751,10 +10756,10 @@
     </row>
     <row r="34" spans="1:12" hidden="1">
       <c r="B34" s="18"/>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="147"/>
+      <c r="D34" s="145"/>
       <c r="E34" s="96"/>
       <c r="F34" s="91"/>
       <c r="G34" s="91"/>
@@ -10770,10 +10775,10 @@
     </row>
     <row r="35" spans="1:12" hidden="1">
       <c r="B35" s="18"/>
-      <c r="C35" s="146" t="s">
+      <c r="C35" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="147"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="97"/>
       <c r="F35" s="91"/>
       <c r="G35" s="91"/>
@@ -10898,10 +10903,10 @@
       <c r="B43" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="148" t="s">
+      <c r="C43" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="149"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="115"/>
       <c r="F43" s="91"/>
       <c r="K43" s="116" t="e">
@@ -10919,10 +10924,10 @@
       <c r="B45" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="144" t="s">
+      <c r="C45" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="145"/>
+      <c r="D45" s="149"/>
       <c r="E45" s="105"/>
       <c r="F45" s="91"/>
       <c r="K45" s="92"/>
@@ -10930,10 +10935,10 @@
     </row>
     <row r="46" spans="1:12" hidden="1">
       <c r="B46" s="18"/>
-      <c r="C46" s="146" t="s">
+      <c r="C46" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="147"/>
+      <c r="D46" s="145"/>
       <c r="E46" s="96"/>
       <c r="F46" s="91"/>
       <c r="I46" t="s">
@@ -10946,10 +10951,10 @@
     </row>
     <row r="47" spans="1:12" hidden="1">
       <c r="B47" s="18"/>
-      <c r="C47" s="146" t="s">
+      <c r="C47" s="144" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="147"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="96"/>
       <c r="F47" s="91"/>
       <c r="K47" s="92"/>
@@ -11042,10 +11047,10 @@
       <c r="B54" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="148" t="s">
+      <c r="C54" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="149"/>
+      <c r="D54" s="151"/>
       <c r="E54" s="115"/>
       <c r="F54" s="91"/>
     </row>
@@ -11064,10 +11069,10 @@
       <c r="B56" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="148" t="s">
+      <c r="C56" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="149"/>
+      <c r="D56" s="151"/>
       <c r="E56" s="115"/>
       <c r="F56" s="91"/>
       <c r="H56" s="78">
@@ -11090,10 +11095,10 @@
       <c r="B58" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="148" t="s">
+      <c r="C58" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="D58" s="149"/>
+      <c r="D58" s="151"/>
       <c r="E58" s="115"/>
       <c r="F58" s="91"/>
     </row>
@@ -11104,10 +11109,10 @@
       <c r="B60" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="148" t="s">
+      <c r="C60" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="149"/>
+      <c r="D60" s="151"/>
       <c r="E60" s="115"/>
       <c r="F60" s="91"/>
       <c r="H60" s="78" t="e">
@@ -11122,10 +11127,10 @@
       <c r="B62" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="148" t="s">
+      <c r="C62" s="150" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="149"/>
+      <c r="D62" s="151"/>
       <c r="E62" s="115"/>
       <c r="F62" s="91"/>
     </row>
@@ -11136,20 +11141,20 @@
       <c r="B64" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="144" t="s">
+      <c r="C64" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="145"/>
+      <c r="D64" s="149"/>
       <c r="E64" s="105"/>
       <c r="F64" s="91"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" thickBot="1">
       <c r="A65" s="106"/>
       <c r="B65" s="126"/>
-      <c r="C65" s="150" t="s">
+      <c r="C65" s="154" t="s">
         <v>156</v>
       </c>
-      <c r="D65" s="151"/>
+      <c r="D65" s="155"/>
       <c r="E65" s="96"/>
       <c r="F65" s="91"/>
     </row>
@@ -11168,28 +11173,28 @@
       <c r="B68" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="C68" s="144" t="s">
+      <c r="C68" s="148" t="s">
         <v>158</v>
       </c>
-      <c r="D68" s="145"/>
+      <c r="D68" s="149"/>
       <c r="E68" s="105"/>
       <c r="F68" s="91"/>
     </row>
     <row r="69" spans="1:6" hidden="1">
       <c r="B69" s="18"/>
-      <c r="C69" s="146" t="s">
+      <c r="C69" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="D69" s="147"/>
+      <c r="D69" s="145"/>
       <c r="E69" s="96"/>
       <c r="F69" s="91"/>
     </row>
     <row r="70" spans="1:6" hidden="1">
       <c r="B70" s="18"/>
-      <c r="C70" s="146" t="s">
+      <c r="C70" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="D70" s="147"/>
+      <c r="D70" s="145"/>
       <c r="E70" s="96"/>
       <c r="F70" s="91"/>
     </row>
@@ -11207,28 +11212,28 @@
       <c r="B73" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="144" t="s">
+      <c r="C73" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="D73" s="145"/>
+      <c r="D73" s="149"/>
       <c r="E73" s="105"/>
       <c r="F73" s="91"/>
     </row>
     <row r="74" spans="1:6" hidden="1">
       <c r="B74" s="18"/>
-      <c r="C74" s="146" t="s">
+      <c r="C74" s="144" t="s">
         <v>162</v>
       </c>
-      <c r="D74" s="147"/>
+      <c r="D74" s="145"/>
       <c r="E74" s="96"/>
       <c r="F74" s="91"/>
     </row>
     <row r="75" spans="1:6" hidden="1">
       <c r="B75" s="18"/>
-      <c r="C75" s="146" t="s">
+      <c r="C75" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="D75" s="147"/>
+      <c r="D75" s="145"/>
       <c r="E75" s="96"/>
       <c r="F75" s="91"/>
     </row>
@@ -11271,12 +11276,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -11289,15 +11297,12 @@
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -11321,24 +11326,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -11349,10 +11354,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -11369,8 +11374,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="16">
         <v>44597</v>
       </c>
@@ -11595,14 +11600,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" hidden="1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
@@ -11613,10 +11618,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -11632,8 +11637,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="16">
         <v>44597</v>
       </c>
@@ -11854,14 +11859,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -11872,10 +11877,10 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -11893,8 +11898,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="16">
         <v>44597</v>
       </c>
@@ -12080,14 +12085,14 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
@@ -12098,10 +12103,10 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -12119,8 +12124,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="16">
         <v>44597</v>
       </c>
@@ -12306,14 +12311,14 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" ht="18.75">
-      <c r="A59" s="138" t="s">
+      <c r="A59" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="138"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
     </row>
     <row r="60" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A60" s="1"/>
@@ -12324,10 +12329,10 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A61" s="139" t="s">
+      <c r="A61" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="141" t="s">
+      <c r="B61" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -12345,8 +12350,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A62" s="140"/>
-      <c r="B62" s="142"/>
+      <c r="A62" s="139"/>
+      <c r="B62" s="141"/>
       <c r="C62" s="16">
         <v>44597</v>
       </c>
@@ -12470,13 +12475,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
@@ -12486,6 +12484,13 @@
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12511,24 +12516,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -12539,10 +12544,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -12559,8 +12564,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="16">
         <v>44625</v>
       </c>
@@ -12785,14 +12790,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" hidden="1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
@@ -12803,10 +12808,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="14"/>
@@ -12818,8 +12823,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -12990,14 +12995,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -13008,10 +13013,10 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -13029,8 +13034,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="16">
         <v>44625</v>
       </c>
@@ -13216,14 +13221,14 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
@@ -13234,10 +13239,10 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -13255,8 +13260,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="16">
         <v>44625</v>
       </c>
@@ -13485,14 +13490,14 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:8" ht="18.75">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
     </row>
     <row r="62" spans="1:8" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A62" s="1"/>
@@ -13503,10 +13508,10 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="141" t="s">
+      <c r="B63" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -13524,8 +13529,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A64" s="140"/>
-      <c r="B64" s="142"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="16">
         <v>44625</v>
       </c>
@@ -13649,13 +13654,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="B63:B64"/>
@@ -13665,6 +13663,13 @@
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13688,24 +13693,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -13716,10 +13721,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -13736,8 +13741,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="16">
         <v>44653</v>
       </c>
@@ -13962,14 +13967,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" hidden="1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
@@ -13980,10 +13985,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="14"/>
@@ -13995,8 +14000,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -14167,14 +14172,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -14185,10 +14190,10 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -14206,8 +14211,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="16">
         <v>44653</v>
       </c>
@@ -14393,14 +14398,14 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
@@ -14411,10 +14416,10 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -14432,8 +14437,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="16">
         <v>44653</v>
       </c>
@@ -14659,14 +14664,14 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="18.75">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
     </row>
     <row r="62" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A62" s="1"/>
@@ -14677,10 +14682,10 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="141" t="s">
+      <c r="B63" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -14698,8 +14703,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A64" s="140"/>
-      <c r="B64" s="142"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="16">
         <v>44653</v>
       </c>
@@ -14765,14 +14770,14 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
     </row>
     <row r="69" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A69" s="1"/>
@@ -14783,10 +14788,10 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="141" t="s">
+      <c r="B70" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="26" t="str">
@@ -14801,8 +14806,8 @@
       <c r="F70" s="132"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A71" s="140"/>
-      <c r="B71" s="142"/>
+      <c r="A71" s="139"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="28">
         <f>E64</f>
         <v>44667</v>
@@ -14913,6 +14918,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A1:F1"/>
@@ -14920,18 +14937,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14955,24 +14960,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -14983,10 +14988,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -15003,8 +15008,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="16">
         <v>44681</v>
       </c>
@@ -15229,14 +15234,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" hidden="1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
@@ -15247,10 +15252,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="14"/>
@@ -15262,8 +15267,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -15434,14 +15439,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -15452,10 +15457,10 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -15473,8 +15478,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="16">
         <v>44681</v>
       </c>
@@ -15660,14 +15665,14 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
@@ -15678,10 +15683,10 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -15699,8 +15704,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="16">
         <v>44681</v>
       </c>
@@ -15926,14 +15931,14 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="18.75">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
     </row>
     <row r="62" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A62" s="1"/>
@@ -15944,10 +15949,10 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="141" t="s">
+      <c r="B63" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -15965,8 +15970,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A64" s="140"/>
-      <c r="B64" s="142"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="16">
         <v>44681</v>
       </c>
@@ -16032,14 +16037,14 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
     </row>
     <row r="69" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A69" s="1"/>
@@ -16050,10 +16055,10 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="141" t="s">
+      <c r="B70" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -16071,8 +16076,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A71" s="140"/>
-      <c r="B71" s="142"/>
+      <c r="A71" s="139"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="16">
         <v>44681</v>
       </c>
@@ -16218,14 +16223,14 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" ht="18.75">
-      <c r="A79" s="138" t="s">
+      <c r="A79" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="138"/>
-      <c r="C79" s="138"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="138"/>
-      <c r="F79" s="138"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="143"/>
     </row>
     <row r="80" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A80" s="1"/>
@@ -16236,10 +16241,10 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A81" s="139" t="s">
+      <c r="A81" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="141" t="s">
+      <c r="B81" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -16253,8 +16258,8 @@
       <c r="F81" s="132"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A82" s="140"/>
-      <c r="B82" s="142"/>
+      <c r="A82" s="139"/>
+      <c r="B82" s="141"/>
       <c r="C82" s="16">
         <v>44702</v>
       </c>
@@ -16503,19 +16508,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="B81:B82"/>
@@ -16525,6 +16517,19 @@
     <mergeCell ref="A68:F68"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16548,24 +16553,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -16576,10 +16581,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -16596,8 +16601,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="16">
         <v>44723</v>
       </c>
@@ -16822,14 +16827,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" hidden="1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
@@ -16840,10 +16845,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="14"/>
@@ -16855,8 +16860,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -17027,14 +17032,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -17045,10 +17050,10 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -17066,8 +17071,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="16">
         <v>44723</v>
       </c>
@@ -17253,14 +17258,14 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="18.75" hidden="1">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
@@ -17271,10 +17276,10 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -17290,8 +17295,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="16">
         <v>44723</v>
       </c>
@@ -17503,14 +17508,14 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="18.75">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
     </row>
     <row r="62" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A62" s="1"/>
@@ -17521,10 +17526,10 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="141" t="s">
+      <c r="B63" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -17542,8 +17547,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A64" s="140"/>
-      <c r="B64" s="142"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="16">
         <v>44723</v>
       </c>
@@ -17609,14 +17614,14 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
     </row>
     <row r="69" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A69" s="1"/>
@@ -17627,10 +17632,10 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="141" t="s">
+      <c r="B70" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -17648,8 +17653,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A71" s="140"/>
-      <c r="B71" s="142"/>
+      <c r="A71" s="139"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="16">
         <v>44723</v>
       </c>
@@ -17795,14 +17800,14 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" ht="18.75">
-      <c r="A79" s="138" t="s">
+      <c r="A79" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="138"/>
-      <c r="C79" s="138"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="138"/>
-      <c r="F79" s="138"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="143"/>
     </row>
     <row r="80" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A80" s="1"/>
@@ -17813,10 +17818,10 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A81" s="139" t="s">
+      <c r="A81" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="141" t="s">
+      <c r="B81" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -17834,8 +17839,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A82" s="140"/>
-      <c r="B82" s="142"/>
+      <c r="A82" s="139"/>
+      <c r="B82" s="141"/>
       <c r="C82" s="16">
         <v>44723</v>
       </c>
@@ -18141,14 +18146,14 @@
       <c r="F97" s="38"/>
     </row>
     <row r="98" spans="1:6" ht="18.75">
-      <c r="A98" s="138" t="s">
+      <c r="A98" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="B98" s="138"/>
-      <c r="C98" s="138"/>
-      <c r="D98" s="138"/>
-      <c r="E98" s="138"/>
-      <c r="F98" s="138"/>
+      <c r="B98" s="143"/>
+      <c r="C98" s="143"/>
+      <c r="D98" s="143"/>
+      <c r="E98" s="143"/>
+      <c r="F98" s="143"/>
     </row>
     <row r="99" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A99" s="1"/>
@@ -18159,10 +18164,10 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A100" s="139" t="s">
+      <c r="A100" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="141" t="s">
+      <c r="B100" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="3" t="str">
@@ -18177,8 +18182,8 @@
       <c r="F100" s="132"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A101" s="140"/>
-      <c r="B101" s="142"/>
+      <c r="A101" s="139"/>
+      <c r="B101" s="141"/>
       <c r="C101" s="16">
         <f>E82</f>
         <v>44737</v>
@@ -18444,6 +18449,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A1:F1"/>
@@ -18451,24 +18474,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18494,24 +18499,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -18522,10 +18527,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -18542,8 +18547,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="16">
         <v>44751</v>
       </c>
@@ -18768,14 +18773,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" hidden="1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
@@ -18786,10 +18791,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="14"/>
@@ -18801,8 +18806,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -18973,14 +18978,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -18991,10 +18996,10 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -19012,8 +19017,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="16">
         <v>44751</v>
       </c>
@@ -19199,14 +19204,14 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="18.75" hidden="1">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
@@ -19217,10 +19222,10 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="14"/>
@@ -19232,8 +19237,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -19399,14 +19404,14 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="18.75">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
     </row>
     <row r="62" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A62" s="1"/>
@@ -19417,10 +19422,10 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="141" t="s">
+      <c r="B63" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -19438,8 +19443,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A64" s="140"/>
-      <c r="B64" s="142"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="16">
         <v>44751</v>
       </c>
@@ -19505,14 +19510,14 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
     </row>
     <row r="69" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A69" s="1"/>
@@ -19523,10 +19528,10 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="141" t="s">
+      <c r="B70" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -19544,8 +19549,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A71" s="140"/>
-      <c r="B71" s="142"/>
+      <c r="A71" s="139"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="16">
         <v>44751</v>
       </c>
@@ -19691,14 +19696,14 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" ht="18.75">
-      <c r="A79" s="138" t="s">
+      <c r="A79" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="138"/>
-      <c r="C79" s="138"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="138"/>
-      <c r="F79" s="138"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="143"/>
     </row>
     <row r="80" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A80" s="1"/>
@@ -19709,10 +19714,10 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A81" s="139" t="s">
+      <c r="A81" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="141" t="s">
+      <c r="B81" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -19730,8 +19735,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A82" s="140"/>
-      <c r="B82" s="142"/>
+      <c r="A82" s="139"/>
+      <c r="B82" s="141"/>
       <c r="C82" s="16">
         <v>44751</v>
       </c>
@@ -20046,14 +20051,14 @@
       <c r="F97" s="38"/>
     </row>
     <row r="98" spans="1:8" ht="18.75">
-      <c r="A98" s="138" t="s">
+      <c r="A98" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="B98" s="138"/>
-      <c r="C98" s="138"/>
-      <c r="D98" s="138"/>
-      <c r="E98" s="138"/>
-      <c r="F98" s="138"/>
+      <c r="B98" s="143"/>
+      <c r="C98" s="143"/>
+      <c r="D98" s="143"/>
+      <c r="E98" s="143"/>
+      <c r="F98" s="143"/>
     </row>
     <row r="99" spans="1:8" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A99" s="1"/>
@@ -20064,10 +20069,10 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A100" s="139" t="s">
+      <c r="A100" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="141" t="s">
+      <c r="B100" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -20085,8 +20090,8 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A101" s="140"/>
-      <c r="B101" s="142"/>
+      <c r="A101" s="139"/>
+      <c r="B101" s="141"/>
       <c r="C101" s="16">
         <v>44751</v>
       </c>
@@ -20404,6 +20409,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A1:F1"/>
@@ -20411,24 +20434,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20452,24 +20457,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -20480,10 +20485,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -20500,8 +20505,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="16">
         <v>44779</v>
       </c>
@@ -20726,14 +20731,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" hidden="1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
@@ -20744,10 +20749,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="14"/>
@@ -20759,8 +20764,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -20931,14 +20936,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -20949,10 +20954,10 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -20970,8 +20975,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="16">
         <v>44779</v>
       </c>
@@ -21157,14 +21162,14 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="18.75" hidden="1">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
@@ -21175,10 +21180,10 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="14"/>
@@ -21190,8 +21195,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -21357,14 +21362,14 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="18.75" hidden="1">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
     </row>
     <row r="62" spans="1:6" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="1"/>
@@ -21375,10 +21380,10 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" hidden="1">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="141" t="s">
+      <c r="B63" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="25"/>
@@ -21390,8 +21395,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A64" s="140"/>
-      <c r="B64" s="142"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
@@ -21436,14 +21441,14 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
     </row>
     <row r="69" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A69" s="1"/>
@@ -21454,10 +21459,10 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="141" t="s">
+      <c r="B70" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -21475,8 +21480,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A71" s="140"/>
-      <c r="B71" s="142"/>
+      <c r="A71" s="139"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="16">
         <v>44779</v>
       </c>
@@ -21622,14 +21627,14 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" ht="18.75">
-      <c r="A79" s="138" t="s">
+      <c r="A79" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="138"/>
-      <c r="C79" s="138"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="138"/>
-      <c r="F79" s="138"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="143"/>
     </row>
     <row r="80" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A80" s="1"/>
@@ -21640,10 +21645,10 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A81" s="139" t="s">
+      <c r="A81" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="141" t="s">
+      <c r="B81" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -21661,8 +21666,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A82" s="140"/>
-      <c r="B82" s="142"/>
+      <c r="A82" s="139"/>
+      <c r="B82" s="141"/>
       <c r="C82" s="16">
         <v>44779</v>
       </c>
@@ -21968,14 +21973,14 @@
       <c r="F97" s="38"/>
     </row>
     <row r="98" spans="1:6" ht="18.75">
-      <c r="A98" s="138" t="s">
+      <c r="A98" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="B98" s="138"/>
-      <c r="C98" s="138"/>
-      <c r="D98" s="138"/>
-      <c r="E98" s="138"/>
-      <c r="F98" s="138"/>
+      <c r="B98" s="143"/>
+      <c r="C98" s="143"/>
+      <c r="D98" s="143"/>
+      <c r="E98" s="143"/>
+      <c r="F98" s="143"/>
     </row>
     <row r="99" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A99" s="1"/>
@@ -21986,10 +21991,10 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A100" s="139" t="s">
+      <c r="A100" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="141" t="s">
+      <c r="B100" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -22007,8 +22012,8 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A101" s="140"/>
-      <c r="B101" s="142"/>
+      <c r="A101" s="139"/>
+      <c r="B101" s="141"/>
       <c r="C101" s="16">
         <v>44779</v>
       </c>
@@ -22294,14 +22299,14 @@
       <c r="F115" s="38"/>
     </row>
     <row r="116" spans="1:6" ht="18.75">
-      <c r="A116" s="138" t="s">
+      <c r="A116" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="B116" s="138"/>
-      <c r="C116" s="138"/>
-      <c r="D116" s="138"/>
-      <c r="E116" s="138"/>
-      <c r="F116" s="138"/>
+      <c r="B116" s="143"/>
+      <c r="C116" s="143"/>
+      <c r="D116" s="143"/>
+      <c r="E116" s="143"/>
+      <c r="F116" s="143"/>
     </row>
     <row r="117" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A117" s="1"/>
@@ -22312,10 +22317,10 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A118" s="139" t="s">
+      <c r="A118" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="141" t="s">
+      <c r="B118" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -22333,8 +22338,8 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A119" s="140"/>
-      <c r="B119" s="142"/>
+      <c r="A119" s="139"/>
+      <c r="B119" s="141"/>
       <c r="C119" s="16">
         <v>44779</v>
       </c>
@@ -22560,14 +22565,14 @@
       <c r="F130" s="38"/>
     </row>
     <row r="131" spans="1:6" ht="18.75">
-      <c r="A131" s="138" t="s">
+      <c r="A131" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="B131" s="138"/>
-      <c r="C131" s="138"/>
-      <c r="D131" s="138"/>
-      <c r="E131" s="138"/>
-      <c r="F131" s="138"/>
+      <c r="B131" s="143"/>
+      <c r="C131" s="143"/>
+      <c r="D131" s="143"/>
+      <c r="E131" s="143"/>
+      <c r="F131" s="143"/>
     </row>
     <row r="132" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A132" s="1"/>
@@ -22578,10 +22583,10 @@
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A133" s="139" t="s">
+      <c r="A133" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="141" t="s">
+      <c r="B133" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -22599,8 +22604,8 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A134" s="140"/>
-      <c r="B134" s="142"/>
+      <c r="A134" s="139"/>
+      <c r="B134" s="141"/>
       <c r="C134" s="16">
         <v>44779</v>
       </c>
@@ -22726,14 +22731,14 @@
       <c r="F140" s="38"/>
     </row>
     <row r="141" spans="1:6" ht="18.75">
-      <c r="A141" s="138" t="s">
+      <c r="A141" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="B141" s="138"/>
-      <c r="C141" s="138"/>
-      <c r="D141" s="138"/>
-      <c r="E141" s="138"/>
-      <c r="F141" s="138"/>
+      <c r="B141" s="143"/>
+      <c r="C141" s="143"/>
+      <c r="D141" s="143"/>
+      <c r="E141" s="143"/>
+      <c r="F141" s="143"/>
     </row>
     <row r="142" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A142" s="1"/>
@@ -22744,10 +22749,10 @@
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A143" s="139" t="s">
+      <c r="A143" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="141" t="s">
+      <c r="B143" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -22763,8 +22768,8 @@
       <c r="F143" s="42"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A144" s="140"/>
-      <c r="B144" s="142"/>
+      <c r="A144" s="139"/>
+      <c r="B144" s="141"/>
       <c r="C144" s="16">
         <v>44793</v>
       </c>
@@ -22969,31 +22974,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
     <mergeCell ref="A141:F141"/>
     <mergeCell ref="A143:A144"/>
     <mergeCell ref="B143:B144"/>
@@ -23003,6 +22983,31 @@
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23027,24 +23032,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
@@ -23055,10 +23060,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -23075,8 +23080,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="4">
         <v>44814</v>
       </c>
@@ -23301,14 +23306,14 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" hidden="1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
@@ -23319,10 +23324,10 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="14"/>
@@ -23334,8 +23339,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -23506,14 +23511,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
     </row>
     <row r="34" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -23524,10 +23529,10 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -23545,8 +23550,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="4">
         <v>44814</v>
       </c>
@@ -23732,14 +23737,14 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="18.75" hidden="1">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:6" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
@@ -23750,10 +23755,10 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="14"/>
@@ -23765,8 +23770,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="142"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -23932,14 +23937,14 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="18.75" hidden="1">
-      <c r="A61" s="138" t="s">
+      <c r="A61" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="138"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
     </row>
     <row r="62" spans="1:6" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="1"/>
@@ -23950,10 +23955,10 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" hidden="1">
-      <c r="A63" s="139" t="s">
+      <c r="A63" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="141" t="s">
+      <c r="B63" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="25"/>
@@ -23965,8 +23970,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" thickBot="1">
-      <c r="A64" s="140"/>
-      <c r="B64" s="142"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
@@ -24011,14 +24016,14 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="138" t="s">
+      <c r="A68" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
+      <c r="B68" s="143"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
     </row>
     <row r="69" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A69" s="1"/>
@@ -24029,10 +24034,10 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="141" t="s">
+      <c r="B70" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -24050,8 +24055,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A71" s="140"/>
-      <c r="B71" s="142"/>
+      <c r="A71" s="139"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="4">
         <v>44814</v>
       </c>
@@ -24217,14 +24222,14 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="18.75">
-      <c r="A80" s="138" t="s">
+      <c r="A80" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="138"/>
-      <c r="C80" s="138"/>
-      <c r="D80" s="138"/>
-      <c r="E80" s="138"/>
-      <c r="F80" s="138"/>
+      <c r="B80" s="143"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="143"/>
+      <c r="E80" s="143"/>
+      <c r="F80" s="143"/>
     </row>
     <row r="81" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A81" s="1"/>
@@ -24235,10 +24240,10 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A82" s="139" t="s">
+      <c r="A82" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="141" t="s">
+      <c r="B82" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -24257,8 +24262,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A83" s="140"/>
-      <c r="B83" s="142"/>
+      <c r="A83" s="139"/>
+      <c r="B83" s="141"/>
       <c r="C83" s="4">
         <v>44814</v>
       </c>
@@ -24566,14 +24571,14 @@
       <c r="F98" s="38"/>
     </row>
     <row r="99" spans="1:8" ht="18.75" hidden="1">
-      <c r="A99" s="138" t="s">
+      <c r="A99" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="138"/>
-      <c r="C99" s="138"/>
-      <c r="D99" s="138"/>
-      <c r="E99" s="138"/>
-      <c r="F99" s="138"/>
+      <c r="B99" s="143"/>
+      <c r="C99" s="143"/>
+      <c r="D99" s="143"/>
+      <c r="E99" s="143"/>
+      <c r="F99" s="143"/>
     </row>
     <row r="100" spans="1:8" ht="5.0999999999999996" hidden="1" customHeight="1" thickBot="1">
       <c r="A100" s="1"/>
@@ -24584,10 +24589,10 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" hidden="1" thickBot="1">
-      <c r="A101" s="139" t="s">
+      <c r="A101" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="141" t="s">
+      <c r="B101" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -24601,8 +24606,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" hidden="1" thickBot="1">
-      <c r="A102" s="140"/>
-      <c r="B102" s="142"/>
+      <c r="A102" s="139"/>
+      <c r="B102" s="141"/>
       <c r="C102" s="16">
         <v>44814</v>
       </c>
@@ -24842,14 +24847,14 @@
       <c r="F116" s="38"/>
     </row>
     <row r="117" spans="1:6" ht="18.75">
-      <c r="A117" s="138" t="s">
+      <c r="A117" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="B117" s="138"/>
-      <c r="C117" s="138"/>
-      <c r="D117" s="138"/>
-      <c r="E117" s="138"/>
-      <c r="F117" s="138"/>
+      <c r="B117" s="143"/>
+      <c r="C117" s="143"/>
+      <c r="D117" s="143"/>
+      <c r="E117" s="143"/>
+      <c r="F117" s="143"/>
     </row>
     <row r="118" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A118" s="1"/>
@@ -24860,10 +24865,10 @@
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A119" s="139" t="s">
+      <c r="A119" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="141" t="s">
+      <c r="B119" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -24881,8 +24886,8 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A120" s="140"/>
-      <c r="B120" s="142"/>
+      <c r="A120" s="139"/>
+      <c r="B120" s="141"/>
       <c r="C120" s="4">
         <v>44814</v>
       </c>
@@ -25108,14 +25113,14 @@
       <c r="F131" s="38"/>
     </row>
     <row r="132" spans="1:8" ht="18.75">
-      <c r="A132" s="138" t="s">
+      <c r="A132" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="B132" s="138"/>
-      <c r="C132" s="138"/>
-      <c r="D132" s="138"/>
-      <c r="E132" s="138"/>
-      <c r="F132" s="138"/>
+      <c r="B132" s="143"/>
+      <c r="C132" s="143"/>
+      <c r="D132" s="143"/>
+      <c r="E132" s="143"/>
+      <c r="F132" s="143"/>
     </row>
     <row r="133" spans="1:8" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A133" s="1"/>
@@ -25126,10 +25131,10 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A134" s="139" t="s">
+      <c r="A134" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B134" s="141" t="s">
+      <c r="B134" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="3" t="s">
@@ -25147,8 +25152,8 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A135" s="140"/>
-      <c r="B135" s="142"/>
+      <c r="A135" s="139"/>
+      <c r="B135" s="141"/>
       <c r="C135" s="4">
         <v>44814</v>
       </c>
@@ -25297,14 +25302,14 @@
       <c r="F142" s="38"/>
     </row>
     <row r="143" spans="1:8" ht="18.75">
-      <c r="A143" s="138" t="s">
+      <c r="A143" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="B143" s="138"/>
-      <c r="C143" s="138"/>
-      <c r="D143" s="138"/>
-      <c r="E143" s="138"/>
-      <c r="F143" s="138"/>
+      <c r="B143" s="143"/>
+      <c r="C143" s="143"/>
+      <c r="D143" s="143"/>
+      <c r="E143" s="143"/>
+      <c r="F143" s="143"/>
     </row>
     <row r="144" spans="1:8" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A144" s="1"/>
@@ -25315,10 +25320,10 @@
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A145" s="139" t="s">
+      <c r="A145" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="141" t="s">
+      <c r="B145" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C145" s="3" t="s">
@@ -25336,8 +25341,8 @@
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A146" s="140"/>
-      <c r="B146" s="142"/>
+      <c r="A146" s="139"/>
+      <c r="B146" s="141"/>
       <c r="C146" s="4">
         <v>44814</v>
       </c>
@@ -25567,14 +25572,14 @@
       <c r="F157" s="38"/>
     </row>
     <row r="158" spans="1:8" ht="18.75">
-      <c r="A158" s="138" t="s">
+      <c r="A158" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="B158" s="138"/>
-      <c r="C158" s="138"/>
-      <c r="D158" s="138"/>
-      <c r="E158" s="138"/>
-      <c r="F158" s="138"/>
+      <c r="B158" s="143"/>
+      <c r="C158" s="143"/>
+      <c r="D158" s="143"/>
+      <c r="E158" s="143"/>
+      <c r="F158" s="143"/>
     </row>
     <row r="159" spans="1:8" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A159" s="1"/>
@@ -25585,10 +25590,10 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A160" s="139" t="s">
+      <c r="A160" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="141" t="s">
+      <c r="B160" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="3" t="s">
@@ -25606,8 +25611,8 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A161" s="140"/>
-      <c r="B161" s="142"/>
+      <c r="A161" s="139"/>
+      <c r="B161" s="141"/>
       <c r="C161" s="4">
         <v>44814</v>
       </c>
@@ -25952,14 +25957,14 @@
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:6" ht="18.75">
-      <c r="A179" s="138" t="s">
+      <c r="A179" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="B179" s="138"/>
-      <c r="C179" s="138"/>
-      <c r="D179" s="138"/>
-      <c r="E179" s="138"/>
-      <c r="F179" s="138"/>
+      <c r="B179" s="143"/>
+      <c r="C179" s="143"/>
+      <c r="D179" s="143"/>
+      <c r="E179" s="143"/>
+      <c r="F179" s="143"/>
     </row>
     <row r="180" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A180" s="1"/>
@@ -25970,10 +25975,10 @@
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A181" s="139" t="s">
+      <c r="A181" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B181" s="141" t="s">
+      <c r="B181" s="140" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="3" t="s">
@@ -25987,8 +25992,8 @@
       <c r="F181" s="46"/>
     </row>
     <row r="182" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A182" s="140"/>
-      <c r="B182" s="142"/>
+      <c r="A182" s="139"/>
+      <c r="B182" s="141"/>
       <c r="C182" s="4">
         <v>44828</v>
       </c>
@@ -26104,37 +26109,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
     <mergeCell ref="A179:F179"/>
     <mergeCell ref="A181:A182"/>
     <mergeCell ref="B181:B182"/>
@@ -26144,6 +26118,37 @@
     <mergeCell ref="A158:F158"/>
     <mergeCell ref="A160:A161"/>
     <mergeCell ref="B160:B161"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
